--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -314,6 +314,303 @@
   </si>
   <si>
     <t>1.1 如果开展，使用何种体温测量设备（可多选）：</t>
+  </si>
+  <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.schname}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.district}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.point}</t>
+  </si>
+  <si>
+    <t>{.name}</t>
+  </si>
+  <si>
+    <t>{.tel}</t>
+  </si>
+  <si>
+    <t>{.date}</t>
+  </si>
+  <si>
+    <t>{.a1}</t>
+  </si>
+  <si>
+    <t>{.a2}</t>
+  </si>
+  <si>
+    <t>{.a3}</t>
+  </si>
+  <si>
+    <t>{.a41}</t>
+  </si>
+  <si>
+    <t>{.a42}</t>
+  </si>
+  <si>
+    <t>{.a43}</t>
+  </si>
+  <si>
+    <t>{.a44}</t>
+  </si>
+  <si>
+    <t>{.a45}</t>
+  </si>
+  <si>
+    <t>{.a46}</t>
+  </si>
+  <si>
+    <t>{.b1}</t>
+  </si>
+  <si>
+    <t>{.b2}</t>
+  </si>
+  <si>
+    <t>{.b3}</t>
+  </si>
+  <si>
+    <t>{.b4}</t>
+  </si>
+  <si>
+    <t>{.b5a}</t>
+  </si>
+  <si>
+    <t>{.b5b}</t>
+  </si>
+  <si>
+    <t>{.b511}</t>
+  </si>
+  <si>
+    <t>{.b512}</t>
+  </si>
+  <si>
+    <t>{.b513}</t>
+  </si>
+  <si>
+    <t>{.b514}</t>
+  </si>
+  <si>
+    <t>{.b515}</t>
+  </si>
+  <si>
+    <t>{.b516}</t>
+  </si>
+  <si>
+    <t>{.b517}</t>
+  </si>
+  <si>
+    <t>{.b521}</t>
+  </si>
+  <si>
+    <t>{.b522}</t>
+  </si>
+  <si>
+    <t>{.b523}</t>
+  </si>
+  <si>
+    <t>{.b524}</t>
+  </si>
+  <si>
+    <t>{.b525}</t>
+  </si>
+  <si>
+    <t>{.b526}</t>
+  </si>
+  <si>
+    <t>{.b527}</t>
+  </si>
+  <si>
+    <t>{.b531}</t>
+  </si>
+  <si>
+    <t>{.b532}</t>
+  </si>
+  <si>
+    <t>{.b533}</t>
+  </si>
+  <si>
+    <t>{.b534}</t>
+  </si>
+  <si>
+    <t>{.b535}</t>
+  </si>
+  <si>
+    <t>{.b536}</t>
+  </si>
+  <si>
+    <t>{.b537}</t>
+  </si>
+  <si>
+    <t>{.b541}</t>
+  </si>
+  <si>
+    <t>{.b542}</t>
+  </si>
+  <si>
+    <t>{.b543}</t>
+  </si>
+  <si>
+    <t>{.b544}</t>
+  </si>
+  <si>
+    <t>{.b545}</t>
+  </si>
+  <si>
+    <t>{.b546}</t>
+  </si>
+  <si>
+    <t>{.b547}</t>
+  </si>
+  <si>
+    <t>{.c1}</t>
+  </si>
+  <si>
+    <t>{.c111}</t>
+  </si>
+  <si>
+    <t>{.c12}</t>
+  </si>
+  <si>
+    <t>{.c21}年{.c22}月</t>
+  </si>
+  <si>
+    <t>{.c23}</t>
+  </si>
+  <si>
+    <t>{.c24}</t>
+  </si>
+  <si>
+    <t>{.c3}</t>
+  </si>
+  <si>
+    <t>{.d1}</t>
+  </si>
+  <si>
+    <t>{.d11}</t>
+  </si>
+  <si>
+    <t>{.d111}</t>
+  </si>
+  <si>
+    <t>{.d12}</t>
+  </si>
+  <si>
+    <t>{.d13}</t>
+  </si>
+  <si>
+    <t>{.d2}</t>
+  </si>
+  <si>
+    <t>{.e1}</t>
+  </si>
+  <si>
+    <t>{.e11}</t>
+  </si>
+  <si>
+    <t>{.e2}</t>
+  </si>
+  <si>
+    <t>{.e3}</t>
+  </si>
+  <si>
+    <t>{.e6}</t>
+  </si>
+  <si>
+    <t>{.f1}</t>
+  </si>
+  <si>
+    <t>{.f101}</t>
+  </si>
+  <si>
+    <t>{.f21}</t>
+  </si>
+  <si>
+    <t>{.f3}</t>
+  </si>
+  <si>
+    <t>{.f301}</t>
+  </si>
+  <si>
+    <t>{.g111}</t>
+  </si>
+  <si>
+    <t>{.g113}</t>
+  </si>
+  <si>
+    <t>{.g115}</t>
+  </si>
+  <si>
+    <t>{.g117}</t>
+  </si>
+  <si>
+    <t>{.g121}</t>
+  </si>
+  <si>
+    <t>{.g141}</t>
+  </si>
+  <si>
+    <t>{.g21}</t>
+  </si>
+  <si>
+    <t>{.h1}</t>
+  </si>
+  <si>
+    <t>{.h11}</t>
+  </si>
+  <si>
+    <t>{.h2}</t>
+  </si>
+  <si>
+    <t>{.h21}</t>
+  </si>
+  <si>
+    <t>{.h3}</t>
+  </si>
+  <si>
+    <t>{.h31}</t>
+  </si>
+  <si>
+    <t>{.h32}</t>
+  </si>
+  <si>
+    <t>{.i1}</t>
+  </si>
+  <si>
+    <t>{.i11}</t>
+  </si>
+  <si>
+    <t>{.i121}</t>
+  </si>
+  <si>
+    <t>{.j1}</t>
+  </si>
+  <si>
+    <t>{.j101}</t>
+  </si>
+  <si>
+    <t>{.j201}</t>
+  </si>
+  <si>
+    <t>{.j3}</t>
+  </si>
+  <si>
+    <t>{.j401}</t>
+  </si>
+  <si>
+    <t>{.j501}</t>
   </si>
 </sst>
 </file>
@@ -322,12 +619,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,21 +645,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,15 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,7 +677,62 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,9 +744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,30 +761,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,37 +775,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -504,6 +788,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -514,103 +805,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,79 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,15 +1017,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -756,17 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,21 +1079,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -820,159 +1087,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -992,25 +1286,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,198 +1632,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV5"/>
+  <dimension ref="A1:DF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="CS2" sqref="CS2:CV3"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="20.0416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.6416666666667" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.9166666666667" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.9166666666667" style="1" customWidth="1"/>
-    <col min="18" max="20" width="11.95" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.0416666666667" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.8666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.3166666666667" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7083333333333" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.3916666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.2666666666667" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.8666666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.8916666666667" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.675" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.9916666666667" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15.9333333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.90833333333333" style="1" customWidth="1"/>
-    <col min="38" max="38" width="9.41666666666667" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.0083333333333" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7916666666667" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.175" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.53333333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.975" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.93333333333333" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.9" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.5166666666667" style="1" customWidth="1"/>
-    <col min="47" max="47" width="14.0083333333333" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.69166666666667" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.575" style="1" customWidth="1"/>
-    <col min="50" max="50" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="51" max="51" width="10.625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5083333333333" style="1" customWidth="1"/>
-    <col min="53" max="53" width="14.6083333333333" style="1" customWidth="1"/>
-    <col min="54" max="54" width="13.5166666666667" style="1" customWidth="1"/>
-    <col min="55" max="55" width="20.0416666666667" style="1" customWidth="1"/>
-    <col min="56" max="56" width="20.8833333333333" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="59" max="62" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="63" max="63" width="18.4" style="1" customWidth="1"/>
-    <col min="64" max="64" width="16.0583333333333" style="1" customWidth="1"/>
-    <col min="65" max="65" width="19.3166666666667" style="1" customWidth="1"/>
-    <col min="66" max="66" width="21.0166666666667" style="1" customWidth="1"/>
-    <col min="67" max="67" width="17.9916666666667" style="1" customWidth="1"/>
-    <col min="68" max="68" width="20.7666666666667" style="1" customWidth="1"/>
-    <col min="69" max="69" width="21.8583333333333" style="1" customWidth="1"/>
-    <col min="70" max="70" width="18.35" style="1" customWidth="1"/>
-    <col min="71" max="71" width="18.475" style="1" customWidth="1"/>
-    <col min="72" max="72" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="73" max="73" width="18.7166666666667" style="1" customWidth="1"/>
-    <col min="74" max="74" width="19.5666666666667" style="1" customWidth="1"/>
-    <col min="75" max="75" width="21.7333333333333" style="1" customWidth="1"/>
-    <col min="76" max="76" width="20.2833333333333" style="1" customWidth="1"/>
-    <col min="77" max="77" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="78" max="78" width="22.4583333333333" style="1" customWidth="1"/>
-    <col min="79" max="79" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="80" max="80" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="83" max="83" width="27.4083333333333" style="1" customWidth="1"/>
-    <col min="84" max="84" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="85" max="85" width="18.6" style="1" customWidth="1"/>
-    <col min="86" max="86" width="16.1833333333333" style="1" customWidth="1"/>
-    <col min="87" max="87" width="18.8416666666667" style="1" customWidth="1"/>
-    <col min="88" max="88" width="24.025" style="1" customWidth="1"/>
-    <col min="89" max="89" width="17.4" style="1" customWidth="1"/>
-    <col min="90" max="90" width="22.8166666666667" style="1" customWidth="1"/>
-    <col min="91" max="91" width="21.3666666666667" style="1" customWidth="1"/>
-    <col min="92" max="92" width="25.1083333333333" style="1" customWidth="1"/>
-    <col min="93" max="93" width="20.6416666666667" style="1" customWidth="1"/>
-    <col min="94" max="94" width="21.4916666666667" style="1" customWidth="1"/>
-    <col min="95" max="95" width="21.975" style="1" customWidth="1"/>
-    <col min="96" max="96" width="18.7166666666667" style="1" customWidth="1"/>
-    <col min="97" max="97" width="20.65" style="1" customWidth="1"/>
-    <col min="98" max="98" width="20.525" style="1" customWidth="1"/>
-    <col min="99" max="99" width="18.95" style="1" customWidth="1"/>
-    <col min="100" max="100" width="24.025" style="1" customWidth="1"/>
-    <col min="101" max="101" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="102" max="102" width="18.4" style="1" customWidth="1"/>
-    <col min="103" max="103" width="8" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="1" customWidth="1"/>
-    <col min="115" max="115" width="8" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="1" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="121" max="121" width="8" style="1" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="1" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="1" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="1" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="1" customWidth="1"/>
-    <col min="142" max="142" width="8" style="1" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8" style="1" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="1" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="160" max="160" width="8" style="1" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="1" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="1" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="1" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="1" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="1" customWidth="1"/>
-    <col min="181" max="181" width="8" style="1" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="1" customWidth="1"/>
-    <col min="193" max="193" width="8" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="1" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="20.0416666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5416666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.6416666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.9166666666667" style="5" customWidth="1"/>
+    <col min="16" max="17" width="12.9166666666667" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.95" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.0416666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.3333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="18.8666666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.3166666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.7083333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.3916666666667" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.2666666666667" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.8666666666667" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13.8916666666667" style="2" customWidth="1"/>
+    <col min="33" max="33" width="16.3833333333333" style="2" customWidth="1"/>
+    <col min="34" max="34" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="10.9916666666667" style="2" customWidth="1"/>
+    <col min="36" max="36" width="15.9333333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.90833333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="39" max="39" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="40" max="40" width="12.7916666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.175" style="2" customWidth="1"/>
+    <col min="42" max="42" width="9.53333333333333" style="2" customWidth="1"/>
+    <col min="43" max="43" width="14.975" style="2" customWidth="1"/>
+    <col min="44" max="44" width="8.93333333333333" style="2" customWidth="1"/>
+    <col min="45" max="45" width="9.9" style="2" customWidth="1"/>
+    <col min="46" max="46" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="47" max="47" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="48" max="48" width="8.69166666666667" style="2" customWidth="1"/>
+    <col min="49" max="49" width="8.575" style="2" customWidth="1"/>
+    <col min="50" max="50" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="51" max="51" width="10.625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="10.5083333333333" style="2" customWidth="1"/>
+    <col min="53" max="53" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="54" max="54" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="55" max="55" width="20.0416666666667" style="2" customWidth="1"/>
+    <col min="56" max="56" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="57" max="57" width="21.2416666666667" style="2" customWidth="1"/>
+    <col min="58" max="58" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="59" max="62" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="63" max="63" width="18.4" style="2" customWidth="1"/>
+    <col min="64" max="64" width="16.0583333333333" style="2" customWidth="1"/>
+    <col min="65" max="65" width="19.3166666666667" style="2" customWidth="1"/>
+    <col min="66" max="66" width="21.0166666666667" style="2" customWidth="1"/>
+    <col min="67" max="67" width="17.9916666666667" style="2" customWidth="1"/>
+    <col min="68" max="68" width="20.7666666666667" style="2" customWidth="1"/>
+    <col min="69" max="69" width="21.8583333333333" style="2" customWidth="1"/>
+    <col min="70" max="70" width="18.35" style="2" customWidth="1"/>
+    <col min="71" max="71" width="18.475" style="2" customWidth="1"/>
+    <col min="72" max="72" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="73" max="73" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="74" max="74" width="19.5666666666667" style="2" customWidth="1"/>
+    <col min="75" max="75" width="21.7333333333333" style="2" customWidth="1"/>
+    <col min="76" max="76" width="20.2833333333333" style="2" customWidth="1"/>
+    <col min="77" max="77" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="78" max="78" width="22.4583333333333" style="2" customWidth="1"/>
+    <col min="79" max="79" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="80" max="80" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="81" max="81" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="82" max="82" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="83" max="83" width="27.4083333333333" style="2" customWidth="1"/>
+    <col min="84" max="84" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="85" max="85" width="18.6" style="2" customWidth="1"/>
+    <col min="86" max="86" width="16.1833333333333" style="2" customWidth="1"/>
+    <col min="87" max="87" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="88" max="88" width="24.025" style="2" customWidth="1"/>
+    <col min="89" max="89" width="17.4" style="2" customWidth="1"/>
+    <col min="90" max="90" width="22.8166666666667" style="2" customWidth="1"/>
+    <col min="91" max="91" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="92" max="92" width="25.1083333333333" style="2" customWidth="1"/>
+    <col min="93" max="93" width="20.6416666666667" style="2" customWidth="1"/>
+    <col min="94" max="94" width="21.4916666666667" style="2" customWidth="1"/>
+    <col min="95" max="95" width="21.975" style="2" customWidth="1"/>
+    <col min="96" max="96" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="97" max="97" width="20.65" style="2" customWidth="1"/>
+    <col min="98" max="98" width="20.525" style="2" customWidth="1"/>
+    <col min="99" max="99" width="18.95" style="2" customWidth="1"/>
+    <col min="100" max="100" width="24.025" style="2" customWidth="1"/>
+    <col min="101" max="101" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="102" max="102" width="18.4" style="2" customWidth="1"/>
+    <col min="103" max="103" width="8" style="2" customWidth="1"/>
+    <col min="104" max="104" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="105" max="113" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="114" max="114" width="18.4" style="2" customWidth="1"/>
+    <col min="115" max="115" width="8" style="2" customWidth="1"/>
+    <col min="116" max="116" width="15.2" style="2" customWidth="1"/>
+    <col min="117" max="117" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="118" max="119" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="120" max="120" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="121" max="121" width="8" style="2" customWidth="1"/>
+    <col min="122" max="123" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="124" max="124" width="15.2" style="2" customWidth="1"/>
+    <col min="125" max="126" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="127" max="128" width="17.4" style="2" customWidth="1"/>
+    <col min="129" max="129" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="130" max="131" width="17.4" style="2" customWidth="1"/>
+    <col min="132" max="132" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
+    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="136" max="136" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="137" max="140" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="141" max="141" width="18.4" style="2" customWidth="1"/>
+    <col min="142" max="142" width="8" style="2" customWidth="1"/>
+    <col min="143" max="143" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="144" max="152" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="153" max="153" width="18.4" style="2" customWidth="1"/>
+    <col min="154" max="154" width="8" style="2" customWidth="1"/>
+    <col min="155" max="155" width="15.2" style="2" customWidth="1"/>
+    <col min="156" max="156" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="157" max="158" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="159" max="159" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="160" max="160" width="8" style="2" customWidth="1"/>
+    <col min="161" max="162" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="163" max="163" width="15.2" style="2" customWidth="1"/>
+    <col min="164" max="165" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="166" max="167" width="17.4" style="2" customWidth="1"/>
+    <col min="168" max="168" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="169" max="170" width="17.4" style="2" customWidth="1"/>
+    <col min="171" max="171" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
+    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="175" max="175" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="176" max="179" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="180" max="180" width="18.4" style="2" customWidth="1"/>
+    <col min="181" max="181" width="8" style="2" customWidth="1"/>
+    <col min="182" max="182" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="183" max="191" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="192" max="192" width="18.4" style="2" customWidth="1"/>
+    <col min="193" max="193" width="8" style="2" customWidth="1"/>
+    <col min="194" max="194" width="15.2" style="2" customWidth="1"/>
+    <col min="195" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:100">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="41" customHeight="1" spans="1:100">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="8"/>
@@ -1540,7 +1834,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="8"/>
@@ -1576,7 +1870,7 @@
       <c r="AZ1" s="8"/>
       <c r="BA1" s="8"/>
       <c r="BB1" s="8"/>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="BD1" s="8"/>
@@ -1585,7 +1879,7 @@
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
       <c r="BI1" s="8"/>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="BK1" s="8"/>
@@ -1593,7 +1887,7 @@
       <c r="BM1" s="8"/>
       <c r="BN1" s="8"/>
       <c r="BO1" s="8"/>
-      <c r="BP1" s="7" t="s">
+      <c r="BP1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="BQ1" s="8"/>
@@ -1605,7 +1899,7 @@
       <c r="BW1" s="8"/>
       <c r="BX1" s="8"/>
       <c r="BY1" s="8"/>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="CA1" s="8"/>
@@ -1614,7 +1908,7 @@
       <c r="CD1" s="8"/>
       <c r="CE1" s="8"/>
       <c r="CF1" s="8"/>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="CH1" s="8"/>
@@ -1623,12 +1917,12 @@
       <c r="CK1" s="8"/>
       <c r="CL1" s="8"/>
       <c r="CM1" s="8"/>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="CO1" s="8"/>
       <c r="CP1" s="8"/>
-      <c r="CQ1" s="7" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="CR1" s="8"/>
@@ -1637,7 +1931,7 @@
       <c r="CU1" s="8"/>
       <c r="CV1" s="8"/>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:100">
+    <row r="2" ht="49" customHeight="1" spans="1:100">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1649,44 +1943,44 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="8"/>
@@ -1716,56 +2010,56 @@
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8"/>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BJ2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="BL2" s="8"/>
       <c r="BM2" s="8"/>
       <c r="BN2" s="8"/>
-      <c r="BO2" s="9" t="s">
+      <c r="BO2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BP2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="BQ2" s="8"/>
-      <c r="BR2" s="9" t="s">
+      <c r="BR2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BS2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BT2" s="9" t="s">
+      <c r="BT2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BU2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="BV2" s="8"/>
-      <c r="BW2" s="9" t="s">
+      <c r="BW2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="BY2" s="10"/>
-      <c r="BZ2" s="7" t="s">
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="CA2" s="8"/>
@@ -1773,45 +2067,45 @@
       <c r="CC2" s="8"/>
       <c r="CD2" s="8"/>
       <c r="CE2" s="8"/>
-      <c r="CF2" s="7" t="s">
+      <c r="CF2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CG2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="CH2" s="8"/>
-      <c r="CI2" s="7" t="s">
+      <c r="CI2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="CJ2" s="8"/>
-      <c r="CK2" s="7" t="s">
+      <c r="CK2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="CL2" s="8"/>
       <c r="CM2" s="8"/>
-      <c r="CN2" s="7" t="s">
+      <c r="CN2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="CO2" s="8"/>
       <c r="CP2" s="8"/>
-      <c r="CQ2" s="7" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="CR2" s="8"/>
-      <c r="CS2" s="9" t="s">
+      <c r="CS2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="CT2" s="9" t="s">
+      <c r="CT2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="CU2" s="9" t="s">
+      <c r="CU2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="CV2" s="9" t="s">
+      <c r="CV2" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:100">
+    <row r="3" ht="69" customHeight="1" spans="1:100">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1824,239 +2118,543 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="9" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AP3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AX3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AY3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="AZ3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BA3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BC3" s="13" t="s">
+      <c r="BC3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="13" t="s">
+      <c r="BD3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="13" t="s">
+      <c r="BE3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="11" t="s">
+      <c r="BF3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BG3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="BH3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BI3" s="10"/>
-      <c r="BJ3" s="10"/>
-      <c r="BK3" s="13" t="s">
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BL3" s="13" t="s">
+      <c r="BL3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BM3" s="13" t="s">
+      <c r="BM3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BN3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="BO3" s="10"/>
-      <c r="BP3" s="13" t="s">
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BQ3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="10"/>
-      <c r="BT3" s="10"/>
-      <c r="BU3" s="13" t="s">
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="BV3" s="13" t="s">
+      <c r="BV3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="BW3" s="10"/>
-      <c r="BX3" s="13" t="s">
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="BY3" s="13" t="s">
+      <c r="BY3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="BZ3" s="13" t="s">
+      <c r="BZ3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="CA3" s="13" t="s">
+      <c r="CA3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="CB3" s="13" t="s">
+      <c r="CB3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="CC3" s="13" t="s">
+      <c r="CC3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="CD3" s="13" t="s">
+      <c r="CD3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="CE3" s="13" t="s">
+      <c r="CE3" s="14" t="s">
         <v>87</v>
       </c>
       <c r="CF3" s="8"/>
-      <c r="CG3" s="13" t="s">
+      <c r="CG3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="CH3" s="13" t="s">
+      <c r="CH3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="CI3" s="13" t="s">
+      <c r="CI3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="CJ3" s="13" t="s">
+      <c r="CJ3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="CK3" s="13" t="s">
+      <c r="CK3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="CL3" s="13" t="s">
+      <c r="CL3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="CM3" s="13" t="s">
+      <c r="CM3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="CN3" s="13" t="s">
+      <c r="CN3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="CO3" s="13" t="s">
+      <c r="CO3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="13" t="s">
+      <c r="CP3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="CQ3" s="13" t="s">
+      <c r="CQ3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="CR3" s="13" t="s">
+      <c r="CR3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="CS3" s="10"/>
-      <c r="CT3" s="10"/>
-      <c r="CU3" s="10"/>
-      <c r="CV3" s="10"/>
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:110">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH4" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CP4" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="CU4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CX4" s="10"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DF4" s="10"/>
     </row>
     <row r="5" spans="36:42">
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="56">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -619,10 +619,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -646,31 +646,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,7 +660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,8 +675,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,14 +722,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,22 +737,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,11 +766,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,12 +780,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -805,25 +805,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,12 +919,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,120 +986,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,48 +1017,25 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1079,11 +1056,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,9 +1103,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,166 +1116,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1283,23 +1274,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1:DF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1946,7 +1943,7 @@
       <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -1962,22 +1959,22 @@
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -2020,10 +2017,10 @@
       </c>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
-      <c r="BI2" s="11" t="s">
+      <c r="BI2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="BK2" s="8" t="s">
@@ -2032,33 +2029,33 @@
       <c r="BL2" s="8"/>
       <c r="BM2" s="8"/>
       <c r="BN2" s="8"/>
-      <c r="BO2" s="11" t="s">
+      <c r="BO2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="BP2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="BQ2" s="8"/>
-      <c r="BR2" s="11" t="s">
+      <c r="BR2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="BS2" s="11" t="s">
+      <c r="BS2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BT2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="BU2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="BV2" s="8"/>
-      <c r="BW2" s="11" t="s">
+      <c r="BW2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BX2" s="11" t="s">
+      <c r="BX2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BY2" s="11"/>
+      <c r="BY2" s="8"/>
       <c r="BZ2" s="8" t="s">
         <v>45</v>
       </c>
@@ -2092,16 +2089,16 @@
         <v>51</v>
       </c>
       <c r="CR2" s="8"/>
-      <c r="CS2" s="11" t="s">
+      <c r="CS2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="CT2" s="11" t="s">
+      <c r="CT2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="CU2" s="11" t="s">
+      <c r="CU2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="CV2" s="11" t="s">
+      <c r="CV2" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2118,232 +2115,232 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="11"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AO3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AP3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BD3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BE3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BF3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BG3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BH3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="14" t="s">
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BL3" s="14" t="s">
+      <c r="BL3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BM3" s="14" t="s">
+      <c r="BM3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BN3" s="14" t="s">
+      <c r="BN3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="14" t="s">
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="14" t="s">
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="BV3" s="14" t="s">
+      <c r="BV3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="14" t="s">
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BY3" s="14" t="s">
+      <c r="BY3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="BZ3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CA3" s="14" t="s">
+      <c r="CA3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CB3" s="14" t="s">
+      <c r="CB3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CC3" s="14" t="s">
+      <c r="CC3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="CD3" s="14" t="s">
+      <c r="CD3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CE3" s="14" t="s">
+      <c r="CE3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="CF3" s="8"/>
-      <c r="CG3" s="14" t="s">
+      <c r="CG3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="CH3" s="14" t="s">
+      <c r="CH3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="CI3" s="14" t="s">
+      <c r="CI3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CJ3" s="14" t="s">
+      <c r="CJ3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="CK3" s="14" t="s">
+      <c r="CK3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="CL3" s="14" t="s">
+      <c r="CL3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="CM3" s="14" t="s">
+      <c r="CM3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="CN3" s="14" t="s">
+      <c r="CN3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="CO3" s="14" t="s">
+      <c r="CO3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="14" t="s">
+      <c r="CP3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="CQ3" s="14" t="s">
+      <c r="CQ3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="CR3" s="14" t="s">
+      <c r="CR3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="CS3" s="11"/>
-      <c r="CT3" s="11"/>
-      <c r="CU3" s="11"/>
-      <c r="CV3" s="11"/>
+      <c r="CS3" s="8"/>
+      <c r="CT3" s="8"/>
+      <c r="CU3" s="8"/>
+      <c r="CV3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:110">
+    <row r="4" s="1" customFormat="1" ht="36" spans="1:110">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -2365,7 +2362,6 @@
       <c r="G4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>107</v>
       </c>
@@ -2648,13 +2644,13 @@
       <c r="DF4" s="10"/>
     </row>
     <row r="5" spans="36:42">
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="56">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12120"/>
+    <workbookView windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
   <si>
     <t>ID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>监测点</t>
-  </si>
-  <si>
-    <t>单位名称</t>
   </si>
   <si>
     <t>填表人姓名</t>
@@ -619,10 +616,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -655,14 +652,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,31 +695,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,9 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,44 +735,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,8 +749,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -811,37 +808,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,115 +976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,21 +1054,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1111,157 +1093,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,12 +1274,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1300,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1629,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DF5"/>
+  <dimension ref="A1:DE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1644,740 +1632,736 @@
     <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.6416666666667" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.9166666666667" style="5" customWidth="1"/>
-    <col min="16" max="17" width="12.9166666666667" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.95" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.3333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.8333333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.0416666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="18.8666666666667" style="2" customWidth="1"/>
-    <col min="26" max="26" width="19.3166666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.7083333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.3916666666667" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.2666666666667" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.8666666666667" style="2" customWidth="1"/>
-    <col min="32" max="32" width="13.8916666666667" style="2" customWidth="1"/>
-    <col min="33" max="33" width="16.3833333333333" style="2" customWidth="1"/>
-    <col min="34" max="34" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="35" max="35" width="10.9916666666667" style="2" customWidth="1"/>
-    <col min="36" max="36" width="15.9333333333333" style="2" customWidth="1"/>
-    <col min="37" max="37" width="9.90833333333333" style="2" customWidth="1"/>
-    <col min="38" max="38" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="39" max="39" width="14.0083333333333" style="2" customWidth="1"/>
-    <col min="40" max="40" width="12.7916666666667" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.175" style="2" customWidth="1"/>
-    <col min="42" max="42" width="9.53333333333333" style="2" customWidth="1"/>
-    <col min="43" max="43" width="14.975" style="2" customWidth="1"/>
-    <col min="44" max="44" width="8.93333333333333" style="2" customWidth="1"/>
-    <col min="45" max="45" width="9.9" style="2" customWidth="1"/>
-    <col min="46" max="46" width="13.5166666666667" style="2" customWidth="1"/>
-    <col min="47" max="47" width="14.0083333333333" style="2" customWidth="1"/>
-    <col min="48" max="48" width="8.69166666666667" style="2" customWidth="1"/>
-    <col min="49" max="49" width="8.575" style="2" customWidth="1"/>
-    <col min="50" max="50" width="18.8333333333333" style="2" customWidth="1"/>
-    <col min="51" max="51" width="10.625" style="2" customWidth="1"/>
-    <col min="52" max="52" width="10.5083333333333" style="2" customWidth="1"/>
-    <col min="53" max="53" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="54" max="54" width="13.5166666666667" style="2" customWidth="1"/>
-    <col min="55" max="55" width="20.0416666666667" style="2" customWidth="1"/>
-    <col min="56" max="56" width="20.8833333333333" style="2" customWidth="1"/>
-    <col min="57" max="57" width="21.2416666666667" style="2" customWidth="1"/>
-    <col min="58" max="58" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="59" max="62" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="63" max="63" width="18.4" style="2" customWidth="1"/>
-    <col min="64" max="64" width="16.0583333333333" style="2" customWidth="1"/>
-    <col min="65" max="65" width="19.3166666666667" style="2" customWidth="1"/>
-    <col min="66" max="66" width="21.0166666666667" style="2" customWidth="1"/>
-    <col min="67" max="67" width="17.9916666666667" style="2" customWidth="1"/>
-    <col min="68" max="68" width="20.7666666666667" style="2" customWidth="1"/>
-    <col min="69" max="69" width="21.8583333333333" style="2" customWidth="1"/>
-    <col min="70" max="70" width="18.35" style="2" customWidth="1"/>
-    <col min="71" max="71" width="18.475" style="2" customWidth="1"/>
-    <col min="72" max="72" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="73" max="73" width="18.7166666666667" style="2" customWidth="1"/>
-    <col min="74" max="74" width="19.5666666666667" style="2" customWidth="1"/>
-    <col min="75" max="75" width="21.7333333333333" style="2" customWidth="1"/>
-    <col min="76" max="76" width="20.2833333333333" style="2" customWidth="1"/>
-    <col min="77" max="77" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="78" max="78" width="22.4583333333333" style="2" customWidth="1"/>
-    <col min="79" max="79" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="80" max="80" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="82" max="82" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="83" max="83" width="27.4083333333333" style="2" customWidth="1"/>
-    <col min="84" max="84" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="85" max="85" width="18.6" style="2" customWidth="1"/>
-    <col min="86" max="86" width="16.1833333333333" style="2" customWidth="1"/>
-    <col min="87" max="87" width="18.8416666666667" style="2" customWidth="1"/>
-    <col min="88" max="88" width="24.025" style="2" customWidth="1"/>
-    <col min="89" max="89" width="17.4" style="2" customWidth="1"/>
-    <col min="90" max="90" width="22.8166666666667" style="2" customWidth="1"/>
-    <col min="91" max="91" width="21.3666666666667" style="2" customWidth="1"/>
-    <col min="92" max="92" width="25.1083333333333" style="2" customWidth="1"/>
-    <col min="93" max="93" width="20.6416666666667" style="2" customWidth="1"/>
-    <col min="94" max="94" width="21.4916666666667" style="2" customWidth="1"/>
-    <col min="95" max="95" width="21.975" style="2" customWidth="1"/>
-    <col min="96" max="96" width="18.7166666666667" style="2" customWidth="1"/>
-    <col min="97" max="97" width="20.65" style="2" customWidth="1"/>
-    <col min="98" max="98" width="20.525" style="2" customWidth="1"/>
-    <col min="99" max="99" width="18.95" style="2" customWidth="1"/>
-    <col min="100" max="100" width="24.025" style="2" customWidth="1"/>
-    <col min="101" max="101" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="102" max="102" width="18.4" style="2" customWidth="1"/>
-    <col min="103" max="103" width="8" style="2" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="2" customWidth="1"/>
-    <col min="115" max="115" width="8" style="2" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="2" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="121" max="121" width="8" style="2" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="2" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="2" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="2" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="2" customWidth="1"/>
-    <col min="142" max="142" width="8" style="2" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="2" customWidth="1"/>
-    <col min="154" max="154" width="8" style="2" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="2" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="160" max="160" width="8" style="2" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="2" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="2" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="2" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="2" customWidth="1"/>
-    <col min="181" max="181" width="8" style="2" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="2" customWidth="1"/>
-    <col min="193" max="193" width="8" style="2" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="2" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="2"/>
+    <col min="8" max="8" width="11.825" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.6416666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.15" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.9666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.8" style="2" customWidth="1"/>
+    <col min="14" max="16" width="12.9166666666667" style="2" customWidth="1"/>
+    <col min="17" max="19" width="11.95" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.0416666666667" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.3333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.8666666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="19.3166666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.7083333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.3916666666667" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.2666666666667" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.8666666666667" style="2" customWidth="1"/>
+    <col min="31" max="31" width="13.8916666666667" style="2" customWidth="1"/>
+    <col min="32" max="32" width="16.3833333333333" style="2" customWidth="1"/>
+    <col min="33" max="33" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="34" max="34" width="10.9916666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="15.9333333333333" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.90833333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="38" max="38" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="39" max="39" width="12.7916666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="9.175" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.53333333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="14.975" style="2" customWidth="1"/>
+    <col min="43" max="43" width="8.93333333333333" style="2" customWidth="1"/>
+    <col min="44" max="44" width="9.9" style="2" customWidth="1"/>
+    <col min="45" max="45" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="46" max="46" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="47" max="47" width="8.69166666666667" style="2" customWidth="1"/>
+    <col min="48" max="48" width="8.575" style="2" customWidth="1"/>
+    <col min="49" max="49" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="50" max="50" width="10.625" style="2" customWidth="1"/>
+    <col min="51" max="51" width="10.5083333333333" style="2" customWidth="1"/>
+    <col min="52" max="52" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="53" max="53" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="54" max="54" width="20.0416666666667" style="2" customWidth="1"/>
+    <col min="55" max="55" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="56" max="56" width="21.2416666666667" style="2" customWidth="1"/>
+    <col min="57" max="57" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="58" max="61" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="62" max="62" width="18.4" style="2" customWidth="1"/>
+    <col min="63" max="63" width="16.0583333333333" style="2" customWidth="1"/>
+    <col min="64" max="64" width="19.3166666666667" style="2" customWidth="1"/>
+    <col min="65" max="65" width="21.0166666666667" style="2" customWidth="1"/>
+    <col min="66" max="66" width="17.9916666666667" style="2" customWidth="1"/>
+    <col min="67" max="67" width="20.7666666666667" style="2" customWidth="1"/>
+    <col min="68" max="68" width="21.8583333333333" style="2" customWidth="1"/>
+    <col min="69" max="69" width="18.35" style="2" customWidth="1"/>
+    <col min="70" max="70" width="18.475" style="2" customWidth="1"/>
+    <col min="71" max="71" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="72" max="72" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="73" max="73" width="19.5666666666667" style="2" customWidth="1"/>
+    <col min="74" max="74" width="21.7333333333333" style="2" customWidth="1"/>
+    <col min="75" max="75" width="20.2833333333333" style="2" customWidth="1"/>
+    <col min="76" max="76" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="77" max="77" width="22.4583333333333" style="2" customWidth="1"/>
+    <col min="78" max="78" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="79" max="79" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="80" max="80" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="81" max="81" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="82" max="82" width="27.4083333333333" style="2" customWidth="1"/>
+    <col min="83" max="83" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="84" max="84" width="18.6" style="2" customWidth="1"/>
+    <col min="85" max="85" width="16.1833333333333" style="2" customWidth="1"/>
+    <col min="86" max="86" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="87" max="87" width="24.025" style="2" customWidth="1"/>
+    <col min="88" max="88" width="17.4" style="2" customWidth="1"/>
+    <col min="89" max="89" width="22.8166666666667" style="2" customWidth="1"/>
+    <col min="90" max="90" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="91" max="91" width="25.1083333333333" style="2" customWidth="1"/>
+    <col min="92" max="92" width="20.6416666666667" style="2" customWidth="1"/>
+    <col min="93" max="93" width="21.4916666666667" style="2" customWidth="1"/>
+    <col min="94" max="94" width="21.975" style="2" customWidth="1"/>
+    <col min="95" max="95" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="96" max="96" width="20.65" style="2" customWidth="1"/>
+    <col min="97" max="97" width="20.525" style="2" customWidth="1"/>
+    <col min="98" max="98" width="18.95" style="2" customWidth="1"/>
+    <col min="99" max="99" width="24.025" style="2" customWidth="1"/>
+    <col min="100" max="100" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="101" max="101" width="18.4" style="2" customWidth="1"/>
+    <col min="102" max="102" width="8" style="2" customWidth="1"/>
+    <col min="103" max="103" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="104" max="112" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="113" max="113" width="18.4" style="2" customWidth="1"/>
+    <col min="114" max="114" width="8" style="2" customWidth="1"/>
+    <col min="115" max="115" width="15.2" style="2" customWidth="1"/>
+    <col min="116" max="116" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="117" max="118" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="119" max="119" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="120" max="120" width="8" style="2" customWidth="1"/>
+    <col min="121" max="122" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="123" max="123" width="15.2" style="2" customWidth="1"/>
+    <col min="124" max="125" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="126" max="127" width="17.4" style="2" customWidth="1"/>
+    <col min="128" max="128" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="129" max="130" width="17.4" style="2" customWidth="1"/>
+    <col min="131" max="131" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="132" max="133" width="17.4" style="2" customWidth="1"/>
+    <col min="134" max="134" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="135" max="135" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="136" max="139" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="140" max="140" width="18.4" style="2" customWidth="1"/>
+    <col min="141" max="141" width="8" style="2" customWidth="1"/>
+    <col min="142" max="142" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="143" max="151" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="152" max="152" width="18.4" style="2" customWidth="1"/>
+    <col min="153" max="153" width="8" style="2" customWidth="1"/>
+    <col min="154" max="154" width="15.2" style="2" customWidth="1"/>
+    <col min="155" max="155" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="156" max="157" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="158" max="158" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="159" max="159" width="8" style="2" customWidth="1"/>
+    <col min="160" max="161" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="162" max="162" width="15.2" style="2" customWidth="1"/>
+    <col min="163" max="164" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="165" max="166" width="17.4" style="2" customWidth="1"/>
+    <col min="167" max="167" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="168" max="169" width="17.4" style="2" customWidth="1"/>
+    <col min="170" max="170" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="171" max="172" width="17.4" style="2" customWidth="1"/>
+    <col min="173" max="173" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="174" max="174" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="175" max="178" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="179" max="179" width="18.4" style="2" customWidth="1"/>
+    <col min="180" max="180" width="8" style="2" customWidth="1"/>
+    <col min="181" max="181" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="182" max="190" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="191" max="191" width="18.4" style="2" customWidth="1"/>
+    <col min="192" max="192" width="8" style="2" customWidth="1"/>
+    <col min="193" max="193" width="15.2" style="2" customWidth="1"/>
+    <col min="194" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="1:100">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="41" customHeight="1" spans="1:99">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="8" t="s">
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:99">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="CT2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU2" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="49" customHeight="1" spans="1:100">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="BT2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="BX2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="CG2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="CT2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="CV2" s="8" t="s">
+    <row r="3" ht="69" customHeight="1" spans="1:99">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="O3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR3" s="6"/>
+      <c r="CS3" s="6"/>
+      <c r="CT3" s="6"/>
+      <c r="CU3" s="6"/>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:100">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="BL3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BV3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="CC3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="CD3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="CE3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="CF3" s="8"/>
-      <c r="CG3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CH3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="CI3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="CK3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="CL3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="CN3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="CO3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="CQ3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="CR3" s="13" t="s">
+    <row r="4" s="1" customFormat="1" ht="36" spans="1:109">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CS3" s="8"/>
-      <c r="CT3" s="8"/>
-      <c r="CU3" s="8"/>
-      <c r="CV3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" spans="1:110">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="1" t="s">
         <v>109</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="1" t="s">
         <v>112</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -2386,22 +2370,22 @@
       <c r="P4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="1" t="s">
         <v>120</v>
       </c>
       <c r="W4" s="1" t="s">
@@ -2410,22 +2394,22 @@
       <c r="X4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -2434,22 +2418,22 @@
       <c r="AF4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AM4" s="1" t="s">
@@ -2458,22 +2442,22 @@
       <c r="AN4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AO4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AS4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AT4" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AU4" s="1" t="s">
@@ -2482,22 +2466,22 @@
       <c r="AV4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AW4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AX4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AY4" s="1" t="s">
         <v>149</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BA4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="BB4" s="10" t="s">
+      <c r="BB4" s="1" t="s">
         <v>152</v>
       </c>
       <c r="BC4" s="1" t="s">
@@ -2506,22 +2490,22 @@
       <c r="BD4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BE4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BF4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BG4" s="1" t="s">
         <v>157</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BI4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="BJ4" s="10" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>160</v>
       </c>
       <c r="BK4" s="1" t="s">
@@ -2530,22 +2514,22 @@
       <c r="BL4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BM4" s="1" t="s">
+      <c r="BM4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="BN4" s="9" t="s">
+      <c r="BN4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BO4" s="9" t="s">
+      <c r="BO4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ4" s="1" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="BR4" s="10" t="s">
+      <c r="BR4" s="1" t="s">
         <v>168</v>
       </c>
       <c r="BS4" s="1" t="s">
@@ -2554,22 +2538,22 @@
       <c r="BT4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="BU4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BV4" s="9" t="s">
+      <c r="BV4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="BW4" s="9" t="s">
+      <c r="BW4" s="1" t="s">
         <v>173</v>
       </c>
       <c r="BX4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BY4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BZ4" s="10" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>176</v>
       </c>
       <c r="CA4" s="1" t="s">
@@ -2578,22 +2562,22 @@
       <c r="CB4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CC4" s="1" t="s">
+      <c r="CC4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="CD4" s="9" t="s">
+      <c r="CD4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="CE4" s="9" t="s">
+      <c r="CE4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="CF4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CG4" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="CH4" s="10" t="s">
+      <c r="CH4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="CI4" s="1" t="s">
@@ -2602,22 +2586,22 @@
       <c r="CJ4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CK4" s="1" t="s">
+      <c r="CK4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="CL4" s="9" t="s">
+      <c r="CL4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="CM4" s="9" t="s">
+      <c r="CM4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="CN4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CO4" s="1" t="s">
+      <c r="CO4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="CP4" s="10" t="s">
+      <c r="CP4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="CQ4" s="1" t="s">
@@ -2626,58 +2610,55 @@
       <c r="CR4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CS4" s="1" t="s">
+      <c r="CS4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="CT4" s="9" t="s">
+      <c r="CT4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CU4" s="9" t="s">
+      <c r="CU4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CV4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CX4" s="10"/>
-      <c r="DB4" s="9"/>
-      <c r="DC4" s="9"/>
-      <c r="DF4" s="10"/>
+      <c r="CW4" s="8"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DE4" s="8"/>
     </row>
-    <row r="5" spans="36:42">
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
+    <row r="5" spans="35:41">
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:BB1"/>
-    <mergeCell ref="BC1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BY1"/>
-    <mergeCell ref="BZ1:CF1"/>
-    <mergeCell ref="CG1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CV1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BZ2:CE2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
+  <mergeCells count="55">
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:BA1"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BO1:BX1"/>
+    <mergeCell ref="BY1:CE1"/>
+    <mergeCell ref="CF1:CL1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CP1:CU1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Z2:BA2"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BY2:CD2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="CP2:CQ2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -2688,28 +2669,27 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="BH2:BH3"/>
     <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BQ2:BQ3"/>
     <mergeCell ref="BR2:BR3"/>
     <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CR2:CR3"/>
     <mergeCell ref="CS2:CS3"/>
     <mergeCell ref="CT2:CT3"/>
     <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -151,7 +151,7 @@
     <t>1.学校目前每周安排的体育活动情况：</t>
   </si>
   <si>
-    <t>2.在上一学年中，学校举办学生体育运动会 次，每次 天</t>
+    <t>2.在上一学年中，学校举办学生体育运动会</t>
   </si>
   <si>
     <t>1.学校午餐</t>
@@ -259,22 +259,31 @@
     <t>7.1 传染病疫情报告人是谁？</t>
   </si>
   <si>
-    <t>（小学）一至二年级每周 次数，每次 时长（分钟）</t>
-  </si>
-  <si>
-    <t>（小学）三至六年级每周 次数，每次 时长（分钟）</t>
-  </si>
-  <si>
-    <t>（中学）初中：每周 次数，每次 时长（分钟）</t>
-  </si>
-  <si>
-    <t>高中：每周 次数，每次 时长（分钟）</t>
-  </si>
-  <si>
-    <t>1.2 早操或课间操：每周 次数，每次 时长（分钟）</t>
-  </si>
-  <si>
-    <t>1.3 学校组织的课外体育活动：每周 次数，每次 时长（分钟）</t>
+    <t>（小学）一至二年级每周 次数</t>
+  </si>
+  <si>
+    <t>每次 时长（分钟）</t>
+  </si>
+  <si>
+    <t>（小学）三至六年级每周 次数</t>
+  </si>
+  <si>
+    <t>（中学）初中：每周 次数</t>
+  </si>
+  <si>
+    <t>高中：每周 次数</t>
+  </si>
+  <si>
+    <t>1.2 早操或课间操：每周 次数</t>
+  </si>
+  <si>
+    <t>1.3 学校组织的课外体育活动：每周 次数</t>
+  </si>
+  <si>
+    <t>共多少次</t>
+  </si>
+  <si>
+    <t>每次多少天</t>
   </si>
   <si>
     <t>配餐方式：</t>
@@ -298,7 +307,7 @@
     <t>3.2 小卖部是否出售薯片、辣条、方便面等零食？</t>
   </si>
   <si>
-    <t>次数（没有请填“0”并跳答九）。</t>
+    <t>次数（没有请填“0”）。</t>
   </si>
   <si>
     <t>1.1 如果有，监测机构为：</t>
@@ -544,22 +553,43 @@
     <t>{.g111}</t>
   </si>
   <si>
+    <t>{.g112}</t>
+  </si>
+  <si>
     <t>{.g113}</t>
   </si>
   <si>
+    <t>{.g114}</t>
+  </si>
+  <si>
     <t>{.g115}</t>
   </si>
   <si>
+    <t>{.g116}</t>
+  </si>
+  <si>
     <t>{.g117}</t>
   </si>
   <si>
+    <t>{.g118}</t>
+  </si>
+  <si>
     <t>{.g121}</t>
   </si>
   <si>
+    <t>{.g122}</t>
+  </si>
+  <si>
     <t>{.g141}</t>
   </si>
   <si>
+    <t>{.g142}</t>
+  </si>
+  <si>
     <t>{.g21}</t>
+  </si>
+  <si>
+    <t>{.g22}</t>
   </si>
   <si>
     <t>{.h1}</t>
@@ -617,8 +647,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -643,14 +673,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -664,7 +695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,26 +710,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,18 +754,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,14 +773,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,15 +793,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,11 +816,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -802,19 +832,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,19 +976,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,146 +1016,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1011,11 +1041,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,6 +1100,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1083,17 +1139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1108,157 +1153,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1346,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DE5"/>
+  <dimension ref="A1:DL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="CL4" sqref="CL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1694,85 +1756,86 @@
     <col min="74" max="74" width="21.7333333333333" style="2" customWidth="1"/>
     <col min="75" max="75" width="20.2833333333333" style="2" customWidth="1"/>
     <col min="76" max="76" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="77" max="77" width="22.4583333333333" style="2" customWidth="1"/>
-    <col min="78" max="78" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="79" max="79" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="80" max="80" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="81" max="81" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="82" max="82" width="27.4083333333333" style="2" customWidth="1"/>
-    <col min="83" max="83" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="84" max="84" width="18.6" style="2" customWidth="1"/>
-    <col min="85" max="85" width="16.1833333333333" style="2" customWidth="1"/>
-    <col min="86" max="86" width="18.8416666666667" style="2" customWidth="1"/>
-    <col min="87" max="87" width="24.025" style="2" customWidth="1"/>
-    <col min="88" max="88" width="17.4" style="2" customWidth="1"/>
-    <col min="89" max="89" width="22.8166666666667" style="2" customWidth="1"/>
-    <col min="90" max="90" width="21.3666666666667" style="2" customWidth="1"/>
-    <col min="91" max="91" width="25.1083333333333" style="2" customWidth="1"/>
-    <col min="92" max="92" width="20.6416666666667" style="2" customWidth="1"/>
-    <col min="93" max="93" width="21.4916666666667" style="2" customWidth="1"/>
-    <col min="94" max="94" width="21.975" style="2" customWidth="1"/>
-    <col min="95" max="95" width="18.7166666666667" style="2" customWidth="1"/>
-    <col min="96" max="96" width="20.65" style="2" customWidth="1"/>
-    <col min="97" max="97" width="20.525" style="2" customWidth="1"/>
-    <col min="98" max="98" width="18.95" style="2" customWidth="1"/>
-    <col min="99" max="99" width="24.025" style="2" customWidth="1"/>
-    <col min="100" max="100" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="101" max="101" width="18.4" style="2" customWidth="1"/>
-    <col min="102" max="102" width="8" style="2" customWidth="1"/>
-    <col min="103" max="103" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="104" max="112" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="113" max="113" width="18.4" style="2" customWidth="1"/>
-    <col min="114" max="114" width="8" style="2" customWidth="1"/>
-    <col min="115" max="115" width="15.2" style="2" customWidth="1"/>
-    <col min="116" max="116" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="117" max="118" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="119" max="119" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="120" max="120" width="8" style="2" customWidth="1"/>
-    <col min="121" max="122" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="123" max="123" width="15.2" style="2" customWidth="1"/>
-    <col min="124" max="125" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="126" max="127" width="17.4" style="2" customWidth="1"/>
-    <col min="128" max="128" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="129" max="130" width="17.4" style="2" customWidth="1"/>
-    <col min="131" max="131" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="132" max="133" width="17.4" style="2" customWidth="1"/>
-    <col min="134" max="134" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="135" max="135" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="136" max="139" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="140" max="140" width="18.4" style="2" customWidth="1"/>
-    <col min="141" max="141" width="8" style="2" customWidth="1"/>
-    <col min="142" max="142" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="143" max="151" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="152" max="152" width="18.4" style="2" customWidth="1"/>
-    <col min="153" max="153" width="8" style="2" customWidth="1"/>
-    <col min="154" max="154" width="15.2" style="2" customWidth="1"/>
-    <col min="155" max="155" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="156" max="157" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="158" max="158" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="159" max="159" width="8" style="2" customWidth="1"/>
-    <col min="160" max="161" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="162" max="162" width="15.2" style="2" customWidth="1"/>
-    <col min="163" max="164" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="165" max="166" width="17.4" style="2" customWidth="1"/>
-    <col min="167" max="167" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="168" max="169" width="17.4" style="2" customWidth="1"/>
-    <col min="170" max="170" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="171" max="172" width="17.4" style="2" customWidth="1"/>
-    <col min="173" max="173" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="174" max="174" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="175" max="178" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="179" max="179" width="18.4" style="2" customWidth="1"/>
-    <col min="180" max="180" width="8" style="2" customWidth="1"/>
-    <col min="181" max="181" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="182" max="190" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="191" max="191" width="18.4" style="2" customWidth="1"/>
-    <col min="192" max="192" width="8" style="2" customWidth="1"/>
-    <col min="193" max="193" width="15.2" style="2" customWidth="1"/>
-    <col min="194" max="16384" width="11" style="2"/>
+    <col min="77" max="78" width="22.4583333333333" style="2" customWidth="1"/>
+    <col min="79" max="80" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="81" max="82" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="83" max="84" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="85" max="86" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="87" max="87" width="17.4916666666667" style="2" customWidth="1"/>
+    <col min="88" max="89" width="27.4083333333333" style="2" customWidth="1"/>
+    <col min="90" max="90" width="20.4166666666667" style="2" customWidth="1"/>
+    <col min="91" max="91" width="18.6" style="2" customWidth="1"/>
+    <col min="92" max="92" width="16.1833333333333" style="2" customWidth="1"/>
+    <col min="93" max="93" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="94" max="94" width="24.025" style="2" customWidth="1"/>
+    <col min="95" max="95" width="17.4" style="2" customWidth="1"/>
+    <col min="96" max="96" width="22.8166666666667" style="2" customWidth="1"/>
+    <col min="97" max="97" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="98" max="98" width="25.1083333333333" style="2" customWidth="1"/>
+    <col min="99" max="99" width="20.6416666666667" style="2" customWidth="1"/>
+    <col min="100" max="100" width="21.4916666666667" style="2" customWidth="1"/>
+    <col min="101" max="101" width="21.975" style="2" customWidth="1"/>
+    <col min="102" max="102" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="103" max="103" width="20.65" style="2" customWidth="1"/>
+    <col min="104" max="104" width="20.525" style="2" customWidth="1"/>
+    <col min="105" max="105" width="18.95" style="2" customWidth="1"/>
+    <col min="106" max="106" width="24.025" style="2" customWidth="1"/>
+    <col min="107" max="107" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="108" max="108" width="18.4" style="2" customWidth="1"/>
+    <col min="109" max="109" width="8" style="2" customWidth="1"/>
+    <col min="110" max="110" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="111" max="119" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="120" max="120" width="18.4" style="2" customWidth="1"/>
+    <col min="121" max="121" width="8" style="2" customWidth="1"/>
+    <col min="122" max="122" width="15.2" style="2" customWidth="1"/>
+    <col min="123" max="123" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="124" max="125" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="126" max="126" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="127" max="127" width="8" style="2" customWidth="1"/>
+    <col min="128" max="129" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="130" max="130" width="15.2" style="2" customWidth="1"/>
+    <col min="131" max="132" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
+    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="136" max="137" width="17.4" style="2" customWidth="1"/>
+    <col min="138" max="138" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="139" max="140" width="17.4" style="2" customWidth="1"/>
+    <col min="141" max="141" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="142" max="142" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="143" max="146" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="147" max="147" width="18.4" style="2" customWidth="1"/>
+    <col min="148" max="148" width="8" style="2" customWidth="1"/>
+    <col min="149" max="149" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="150" max="158" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="159" max="159" width="18.4" style="2" customWidth="1"/>
+    <col min="160" max="160" width="8" style="2" customWidth="1"/>
+    <col min="161" max="161" width="15.2" style="2" customWidth="1"/>
+    <col min="162" max="162" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="163" max="164" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="165" max="165" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="166" max="166" width="8" style="2" customWidth="1"/>
+    <col min="167" max="168" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="169" max="169" width="15.2" style="2" customWidth="1"/>
+    <col min="170" max="171" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
+    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="175" max="176" width="17.4" style="2" customWidth="1"/>
+    <col min="177" max="177" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="178" max="179" width="17.4" style="2" customWidth="1"/>
+    <col min="180" max="180" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="181" max="181" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="182" max="185" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="186" max="186" width="18.4" style="2" customWidth="1"/>
+    <col min="187" max="187" width="8" style="2" customWidth="1"/>
+    <col min="188" max="188" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="189" max="197" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="198" max="198" width="18.4" style="2" customWidth="1"/>
+    <col min="199" max="199" width="8" style="2" customWidth="1"/>
+    <col min="200" max="200" width="15.2" style="2" customWidth="1"/>
+    <col min="201" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="1:99">
+    <row r="1" ht="41" customHeight="1" spans="1:106">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1888,9 +1951,7 @@
       <c r="CC1" s="6"/>
       <c r="CD1" s="6"/>
       <c r="CE1" s="6"/>
-      <c r="CF1" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="CF1" s="6"/>
       <c r="CG1" s="6"/>
       <c r="CH1" s="6"/>
       <c r="CI1" s="6"/>
@@ -1898,20 +1959,29 @@
       <c r="CK1" s="6"/>
       <c r="CL1" s="6"/>
       <c r="CM1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CN1" s="6"/>
       <c r="CO1" s="6"/>
-      <c r="CP1" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="CP1" s="6"/>
       <c r="CQ1" s="6"/>
       <c r="CR1" s="6"/>
       <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
+      <c r="CT1" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
     </row>
-    <row r="2" ht="49" customHeight="1" spans="1:99">
+    <row r="2" ht="49" customHeight="1" spans="1:106">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2046,45 +2116,52 @@
       <c r="CB2" s="6"/>
       <c r="CC2" s="6"/>
       <c r="CD2" s="6"/>
-      <c r="CE2" s="6" t="s">
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="6" t="s">
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="CI2" s="6"/>
-      <c r="CJ2" s="6" t="s">
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CK2" s="6"/>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="6" t="s">
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="6" t="s">
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="CQ2" s="6"/>
-      <c r="CR2" s="6" t="s">
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="CS2" s="6" t="s">
+      <c r="CZ2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="CT2" s="6" t="s">
+      <c r="DA2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="CU2" s="6" t="s">
+      <c r="DB2" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:99">
+    <row r="3" ht="69" customHeight="1" spans="1:106">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2271,358 +2348,402 @@
         <v>83</v>
       </c>
       <c r="CB3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="CC3" s="9" t="s">
+      <c r="CD3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="CD3" s="9" t="s">
+      <c r="CF3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="9" t="s">
+      <c r="CH3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CJ3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CL3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="CI3" s="9" t="s">
+      <c r="CM3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CN3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CO3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="CP3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="CQ3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CR3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CS3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="CT3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="CU3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="CR3" s="6"/>
-      <c r="CS3" s="6"/>
-      <c r="CT3" s="6"/>
-      <c r="CU3" s="6"/>
+      <c r="CV3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY3" s="6"/>
+      <c r="CZ3" s="6"/>
+      <c r="DA3" s="6"/>
+      <c r="DB3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36" spans="1:109">
+    <row r="4" s="1" customFormat="1" ht="36" spans="1:116">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AP4" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AW4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BI4" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="BM4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="BN4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BQ4" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BU4" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BV4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BY4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="BZ4" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CC4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="CD4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CG4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="CG4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="CK4" s="7" t="s">
+      <c r="CH4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="CL4" s="7" t="s">
+      <c r="CI4" s="7" t="s">
         <v>188</v>
       </c>
+      <c r="CJ4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="CM4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO4" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="CN4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="CR4" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="CS4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="CT4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CW4" s="8"/>
-      <c r="DA4" s="7"/>
-      <c r="DB4" s="7"/>
-      <c r="DE4" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="CV4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CZ4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD4" s="8"/>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7"/>
+      <c r="DL4" s="8"/>
     </row>
     <row r="5" spans="35:41">
       <c r="AI5" s="10"/>
@@ -2640,10 +2761,10 @@
     <mergeCell ref="BB1:BH1"/>
     <mergeCell ref="BI1:BN1"/>
     <mergeCell ref="BO1:BX1"/>
-    <mergeCell ref="BY1:CE1"/>
-    <mergeCell ref="CF1:CL1"/>
-    <mergeCell ref="CM1:CO1"/>
-    <mergeCell ref="CP1:CU1"/>
+    <mergeCell ref="BY1:CL1"/>
+    <mergeCell ref="CM1:CS1"/>
+    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="CW1:DB1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Z2:BA2"/>
@@ -2653,12 +2774,13 @@
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="BT2:BU2"/>
     <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BY2:CD2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CL2"/>
-    <mergeCell ref="CM2:CO2"/>
-    <mergeCell ref="CP2:CQ2"/>
+    <mergeCell ref="BY2:CJ2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CW2:CX2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -2685,11 +2807,10 @@
     <mergeCell ref="BR2:BR3"/>
     <mergeCell ref="BS2:BS3"/>
     <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="CZ2:CZ3"/>
+    <mergeCell ref="DA2:DA3"/>
+    <mergeCell ref="DB2:DB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -644,10 +644,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -672,43 +671,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -724,9 +686,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,16 +715,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,6 +755,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -793,11 +792,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,14 +808,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,31 +831,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,151 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,15 +1062,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1129,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1169,189 +1168,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1679,25 +1666,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DL5"/>
+  <dimension ref="A1:DB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="CL4" sqref="CL4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="20.0416666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5416666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5416666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.1" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.825" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.6416666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.15" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.15" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.9666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.8" style="2" customWidth="1"/>
     <col min="14" max="16" width="12.9166666666667" style="2" customWidth="1"/>
@@ -1836,599 +1823,599 @@
   </cols>
   <sheetData>
     <row r="1" ht="41" customHeight="1" spans="1:106">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6" t="s">
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6" t="s">
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6" t="s">
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6" t="s">
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6" t="s">
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6" t="s">
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6"/>
-      <c r="DB1" s="6"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:106">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6" t="s">
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6" t="s">
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BO2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6" t="s">
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BR2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BS2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BT2" s="6" t="s">
+      <c r="BT2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6" t="s">
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BW2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6" t="s">
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="6"/>
-      <c r="CI2" s="6"/>
-      <c r="CJ2" s="6"/>
-      <c r="CK2" s="11" t="s">
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="6" t="s">
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6" t="s">
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6" t="s">
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6"/>
-      <c r="CT2" s="6" t="s">
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6"/>
-      <c r="CW2" s="6" t="s">
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="CX2" s="6"/>
-      <c r="CY2" s="6" t="s">
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="CZ2" s="6" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="DA2" s="6" t="s">
+      <c r="DA2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="DB2" s="6" t="s">
+      <c r="DB2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:106">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6" t="s">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AK3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AL3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AN3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AU3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AW3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AX3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AY3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BA3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BD3" s="9" t="s">
+      <c r="BD3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BE3" s="9" t="s">
+      <c r="BE3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BF3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BG3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="9" t="s">
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BK3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BL3" s="9" t="s">
+      <c r="BL3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BM3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="9" t="s">
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BP3" s="9" t="s">
+      <c r="BP3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="9" t="s">
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BU3" s="9" t="s">
+      <c r="BU3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="9" t="s">
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BX3" s="9" t="s">
+      <c r="BX3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BY3" s="9" t="s">
+      <c r="BY3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BZ3" s="9" t="s">
+      <c r="BZ3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CA3" s="9" t="s">
+      <c r="CA3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CB3" s="9" t="s">
+      <c r="CB3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CC3" s="9" t="s">
+      <c r="CC3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CD3" s="9" t="s">
+      <c r="CD3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CE3" s="9" t="s">
+      <c r="CE3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CF3" s="9" t="s">
+      <c r="CF3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CG3" s="9" t="s">
+      <c r="CG3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CH3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CI3" s="9" t="s">
+      <c r="CI3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CJ3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CK3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL3" s="9" t="s">
+      <c r="CL3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM3" s="9" t="s">
+      <c r="CM3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CN3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CO3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="CP3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="CQ3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="CR3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CS3" s="9" t="s">
+      <c r="CS3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="CT3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="CU3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CV3" s="9" t="s">
+      <c r="CV3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CW3" s="9" t="s">
+      <c r="CW3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CX3" s="9" t="s">
+      <c r="CX3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY3" s="6"/>
-      <c r="CZ3" s="6"/>
-      <c r="DA3" s="6"/>
-      <c r="DB3" s="6"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36" spans="1:116">
+    <row r="4" s="1" customFormat="1" ht="36" spans="1:106">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2437,7 +2424,7 @@
       <c r="E4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2446,10 +2433,10 @@
       <c r="H4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2458,7 +2445,7 @@
       <c r="L4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -2470,10 +2457,10 @@
       <c r="P4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="1" t="s">
         <v>119</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -2482,7 +2469,7 @@
       <c r="T4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -2494,10 +2481,10 @@
       <c r="X4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -2506,7 +2493,7 @@
       <c r="AB4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AD4" s="1" t="s">
@@ -2518,10 +2505,10 @@
       <c r="AF4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="AI4" s="1" t="s">
@@ -2530,7 +2517,7 @@
       <c r="AJ4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AK4" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AL4" s="1" t="s">
@@ -2542,10 +2529,10 @@
       <c r="AN4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -2554,7 +2541,7 @@
       <c r="AR4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AS4" s="1" t="s">
         <v>146</v>
       </c>
       <c r="AT4" s="1" t="s">
@@ -2566,10 +2553,10 @@
       <c r="AV4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AW4" s="7" t="s">
+      <c r="AW4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AX4" s="7" t="s">
+      <c r="AX4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AY4" s="1" t="s">
@@ -2578,7 +2565,7 @@
       <c r="AZ4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BA4" s="1" t="s">
         <v>154</v>
       </c>
       <c r="BB4" s="1" t="s">
@@ -2590,10 +2577,10 @@
       <c r="BD4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BE4" s="7" t="s">
+      <c r="BE4" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BF4" s="7" t="s">
+      <c r="BF4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="BG4" s="1" t="s">
@@ -2602,7 +2589,7 @@
       <c r="BH4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BI4" s="1" t="s">
         <v>162</v>
       </c>
       <c r="BJ4" s="1" t="s">
@@ -2614,10 +2601,10 @@
       <c r="BL4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BM4" s="7" t="s">
+      <c r="BM4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BN4" s="7" t="s">
+      <c r="BN4" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BO4" s="1" t="s">
@@ -2626,7 +2613,7 @@
       <c r="BP4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ4" s="8" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>170</v>
       </c>
       <c r="BR4" s="1" t="s">
@@ -2638,10 +2625,10 @@
       <c r="BT4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BU4" s="7" t="s">
+      <c r="BU4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BV4" s="7" t="s">
+      <c r="BV4" s="1" t="s">
         <v>175</v>
       </c>
       <c r="BW4" s="1" t="s">
@@ -2650,10 +2637,10 @@
       <c r="BX4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BY4" s="8" t="s">
+      <c r="BY4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ4" s="8" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>179</v>
       </c>
       <c r="CA4" s="1" t="s">
@@ -2674,16 +2661,16 @@
       <c r="CF4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CG4" s="7" t="s">
+      <c r="CG4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CH4" s="7" t="s">
+      <c r="CH4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CI4" s="7" t="s">
+      <c r="CI4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ4" s="7" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>189</v>
       </c>
       <c r="CK4" s="1" t="s">
@@ -2695,7 +2682,7 @@
       <c r="CM4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CN4" s="8" t="s">
+      <c r="CN4" s="1" t="s">
         <v>193</v>
       </c>
       <c r="CO4" s="1" t="s">
@@ -2707,10 +2694,10 @@
       <c r="CQ4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR4" s="7" t="s">
+      <c r="CR4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS4" s="7" t="s">
+      <c r="CS4" s="1" t="s">
         <v>198</v>
       </c>
       <c r="CT4" s="1" t="s">
@@ -2719,7 +2706,7 @@
       <c r="CU4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CV4" s="8" t="s">
+      <c r="CV4" s="1" t="s">
         <v>201</v>
       </c>
       <c r="CW4" s="1" t="s">
@@ -2731,28 +2718,24 @@
       <c r="CY4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ4" s="7" t="s">
+      <c r="CZ4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DA4" s="7" t="s">
+      <c r="DA4" s="1" t="s">
         <v>206</v>
       </c>
       <c r="DB4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DD4" s="8"/>
-      <c r="DH4" s="7"/>
-      <c r="DI4" s="7"/>
-      <c r="DL4" s="8"/>
     </row>
     <row r="5" spans="35:41">
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportPrimarySecondarySchoolsTemplate.xlsx
@@ -645,9 +645,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -671,6 +671,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -686,46 +715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,6 +742,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,8 +784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,9 +799,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,29 +821,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -831,31 +831,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +993,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,116 +1015,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1054,6 +1054,17 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1069,7 +1080,57 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1093,8 +1154,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,207 +1174,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,6 +1350,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1689,7 @@
   <dimension ref="A1:DB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -2051,11 +2071,11 @@
       </c>
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="9"/>
       <c r="BH2" s="4" t="s">
         <v>33</v>
       </c>
@@ -2109,10 +2129,10 @@
       <c r="CH2" s="4"/>
       <c r="CI2" s="4"/>
       <c r="CJ2" s="4"/>
-      <c r="CK2" s="7" t="s">
+      <c r="CK2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CL2" s="8"/>
+      <c r="CL2" s="11"/>
       <c r="CM2" s="4" t="s">
         <v>46</v>
       </c>
